--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H2">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I2">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J2">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>11.33521933333333</v>
+        <v>22.51161266666667</v>
       </c>
       <c r="N2">
-        <v>34.005658</v>
+        <v>67.53483800000001</v>
       </c>
       <c r="O2">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="P2">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="Q2">
-        <v>179.1126899439391</v>
+        <v>908.1840688203858</v>
       </c>
       <c r="R2">
-        <v>1612.014209495452</v>
+        <v>8173.656619383473</v>
       </c>
       <c r="S2">
-        <v>0.03387310359763397</v>
+        <v>0.1072717253975211</v>
       </c>
       <c r="T2">
-        <v>0.03387310359763398</v>
+        <v>0.1072717253975211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H3">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I3">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J3">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>30.248441</v>
       </c>
       <c r="N3">
-        <v>90.74532300000001</v>
+        <v>90.745323</v>
       </c>
       <c r="O3">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="P3">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="Q3">
-        <v>477.9686634018847</v>
+        <v>1220.310274062701</v>
       </c>
       <c r="R3">
-        <v>4301.717970616963</v>
+        <v>10982.79246656431</v>
       </c>
       <c r="S3">
-        <v>0.0903915968036777</v>
+        <v>0.144139049685221</v>
       </c>
       <c r="T3">
-        <v>0.09039159680367771</v>
+        <v>0.144139049685221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H4">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I4">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J4">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.14006266666667</v>
+        <v>18.63333</v>
       </c>
       <c r="N4">
-        <v>45.420188</v>
+        <v>55.89999</v>
       </c>
       <c r="O4">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="P4">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="Q4">
-        <v>239.2346606096969</v>
+        <v>751.72284214584</v>
       </c>
       <c r="R4">
-        <v>2153.111945487272</v>
+        <v>6765.50557931256</v>
       </c>
       <c r="S4">
-        <v>0.0452431396430562</v>
+        <v>0.08879103814544094</v>
       </c>
       <c r="T4">
-        <v>0.04524313964305621</v>
+        <v>0.08879103814544094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H5">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I5">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J5">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1272536666666667</v>
+        <v>0.04982966666666667</v>
       </c>
       <c r="N5">
-        <v>0.381761</v>
+        <v>0.149489</v>
       </c>
       <c r="O5">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="P5">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="Q5">
-        <v>2.010790075748222</v>
+        <v>2.010273990201778</v>
       </c>
       <c r="R5">
-        <v>18.097110681734</v>
+        <v>18.092465911816</v>
       </c>
       <c r="S5">
-        <v>0.000380272891721029</v>
+        <v>0.0002374469745222462</v>
       </c>
       <c r="T5">
-        <v>0.000380272891721029</v>
+        <v>0.0002374469745222463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>124.331589</v>
       </c>
       <c r="I6">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J6">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>11.33521933333333</v>
+        <v>22.51161266666667</v>
       </c>
       <c r="N6">
-        <v>34.005658</v>
+        <v>67.53483800000001</v>
       </c>
       <c r="O6">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="P6">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="Q6">
-        <v>469.7752771256181</v>
+        <v>932.9681912663981</v>
       </c>
       <c r="R6">
-        <v>4227.977494130562</v>
+        <v>8396.713721397582</v>
       </c>
       <c r="S6">
-        <v>0.08884209507804183</v>
+        <v>0.1101991447043807</v>
       </c>
       <c r="T6">
-        <v>0.08884209507804185</v>
+        <v>0.1101991447043807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>124.331589</v>
       </c>
       <c r="I7">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J7">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>30.248441</v>
       </c>
       <c r="N7">
-        <v>90.74532300000001</v>
+        <v>90.745323</v>
       </c>
       <c r="O7">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="P7">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="Q7">
         <v>1253.612244767583</v>
@@ -883,10 +883,10 @@
         <v>11282.51020290825</v>
       </c>
       <c r="S7">
-        <v>0.2370783301371089</v>
+        <v>0.1480725693089361</v>
       </c>
       <c r="T7">
-        <v>0.2370783301371089</v>
+        <v>0.1480725693089361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>124.331589</v>
       </c>
       <c r="I8">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J8">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.14006266666667</v>
+        <v>18.63333</v>
       </c>
       <c r="N8">
-        <v>45.420188</v>
+        <v>55.89999</v>
       </c>
       <c r="O8">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="P8">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="Q8">
-        <v>627.462682968748</v>
+        <v>772.2371757537901</v>
       </c>
       <c r="R8">
-        <v>5647.164146718732</v>
+        <v>6950.13458178411</v>
       </c>
       <c r="S8">
-        <v>0.1186633312832392</v>
+        <v>0.09121412399010177</v>
       </c>
       <c r="T8">
-        <v>0.1186633312832392</v>
+        <v>0.09121412399010176</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>124.331589</v>
       </c>
       <c r="I9">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J9">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1272536666666667</v>
+        <v>0.04982966666666667</v>
       </c>
       <c r="N9">
-        <v>0.381761</v>
+        <v>0.149489</v>
       </c>
       <c r="O9">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="P9">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="Q9">
-        <v>5.273883527581001</v>
+        <v>2.065133878669</v>
       </c>
       <c r="R9">
-        <v>47.464951748229</v>
+        <v>18.586204908021</v>
       </c>
       <c r="S9">
-        <v>0.0009973765853637749</v>
+        <v>0.0002439268447303179</v>
       </c>
       <c r="T9">
-        <v>0.0009973765853637747</v>
+        <v>0.0002439268447303179</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H10">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I10">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J10">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>11.33521933333333</v>
+        <v>22.51161266666667</v>
       </c>
       <c r="N10">
-        <v>34.005658</v>
+        <v>67.53483800000001</v>
       </c>
       <c r="O10">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="P10">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="Q10">
-        <v>405.2272258021571</v>
+        <v>824.8717494706967</v>
       </c>
       <c r="R10">
-        <v>3647.045032219414</v>
+        <v>7423.845745236271</v>
       </c>
       <c r="S10">
-        <v>0.07663501566792676</v>
+        <v>0.097431147313919</v>
       </c>
       <c r="T10">
-        <v>0.07663501566792676</v>
+        <v>0.09743114731391903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H11">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I11">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J11">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>30.248441</v>
       </c>
       <c r="N11">
-        <v>90.74532300000001</v>
+        <v>90.745323</v>
       </c>
       <c r="O11">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="P11">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="Q11">
-        <v>1081.363445277568</v>
+        <v>1108.365038786255</v>
       </c>
       <c r="R11">
-        <v>9732.27100749811</v>
+        <v>9975.285349076295</v>
       </c>
       <c r="S11">
-        <v>0.2045032991244009</v>
+        <v>0.130916445424244</v>
       </c>
       <c r="T11">
-        <v>0.2045032991244009</v>
+        <v>0.130916445424244</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H12">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I12">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J12">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.14006266666667</v>
+        <v>18.63333</v>
       </c>
       <c r="N12">
-        <v>45.420188</v>
+        <v>55.89999</v>
       </c>
       <c r="O12">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="P12">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="Q12">
-        <v>541.2480705020448</v>
+        <v>682.76350269315</v>
       </c>
       <c r="R12">
-        <v>4871.232634518404</v>
+        <v>6144.871524238351</v>
       </c>
       <c r="S12">
-        <v>0.1023587550936429</v>
+        <v>0.08064578700161537</v>
       </c>
       <c r="T12">
-        <v>0.1023587550936429</v>
+        <v>0.08064578700161537</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H13">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I13">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J13">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1272536666666667</v>
+        <v>0.04982966666666667</v>
       </c>
       <c r="N13">
-        <v>0.381761</v>
+        <v>0.149489</v>
       </c>
       <c r="O13">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="P13">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="Q13">
-        <v>4.549241510029222</v>
+        <v>1.825861386631667</v>
       </c>
       <c r="R13">
-        <v>40.94317359026299</v>
+        <v>16.432752479685</v>
       </c>
       <c r="S13">
-        <v>0.0008603350717813897</v>
+        <v>0.0002156647622492326</v>
       </c>
       <c r="T13">
-        <v>0.0008603350717813896</v>
+        <v>0.0002156647622492326</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H14">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I14">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J14">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>11.33521933333333</v>
+        <v>22.51161266666667</v>
       </c>
       <c r="N14">
-        <v>34.005658</v>
+        <v>67.53483800000001</v>
       </c>
       <c r="O14">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="P14">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="Q14">
-        <v>0.1827615197177778</v>
+        <v>1.659113357404222</v>
       </c>
       <c r="R14">
-        <v>1.64485367746</v>
+        <v>14.932020216638</v>
       </c>
       <c r="S14">
-        <v>3.456315626212164E-05</v>
+        <v>0.0001959690315972981</v>
       </c>
       <c r="T14">
-        <v>3.456315626212164E-05</v>
+        <v>0.0001959690315972981</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H15">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I15">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J15">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>30.248441</v>
       </c>
       <c r="N15">
-        <v>90.74532300000001</v>
+        <v>90.745323</v>
       </c>
       <c r="O15">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="P15">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="Q15">
-        <v>0.4877056970566667</v>
+        <v>2.229320184513667</v>
       </c>
       <c r="R15">
-        <v>4.38935127351</v>
+        <v>20.063881660623</v>
       </c>
       <c r="S15">
-        <v>9.223302718934893E-05</v>
+        <v>0.000263319993012999</v>
       </c>
       <c r="T15">
-        <v>9.223302718934893E-05</v>
+        <v>0.0002633199930129991</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H16">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I16">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J16">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.14006266666667</v>
+        <v>18.63333</v>
       </c>
       <c r="N16">
-        <v>45.420188</v>
+        <v>55.89999</v>
       </c>
       <c r="O16">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="P16">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="Q16">
-        <v>0.2441082770622222</v>
+        <v>1.37328263211</v>
       </c>
       <c r="R16">
-        <v>2.19697449356</v>
+        <v>12.35954368899</v>
       </c>
       <c r="S16">
-        <v>4.616481925739952E-05</v>
+        <v>0.000162207643210733</v>
       </c>
       <c r="T16">
-        <v>4.616481925739952E-05</v>
+        <v>0.0001622076432107329</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H17">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I17">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J17">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1272536666666667</v>
+        <v>0.04982966666666667</v>
       </c>
       <c r="N17">
-        <v>0.381761</v>
+        <v>0.149489</v>
       </c>
       <c r="O17">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="P17">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="Q17">
-        <v>0.002051753285555556</v>
+        <v>0.003672463043222222</v>
       </c>
       <c r="R17">
-        <v>0.01846577957</v>
+        <v>0.033052167389</v>
       </c>
       <c r="S17">
-        <v>3.880196965394353E-07</v>
+        <v>4.337792972043332E-07</v>
       </c>
       <c r="T17">
-        <v>3.880196965394352E-07</v>
+        <v>4.337792972043333E-07</v>
       </c>
     </row>
   </sheetData>
